--- a/Config/data_config/EntityInfo.xlsx
+++ b/Config/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16020" windowHeight="11700"/>
+    <workbookView windowWidth="24660" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -650,12 +650,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1514,11 +1514,11 @@
   <dimension ref="A1:U64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4460" ySplit="2880" topLeftCell="A1" activePane="bottomRight"/>
+      <pane xSplit="4460" ySplit="2880" topLeftCell="K1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1876,7 +1876,7 @@
         <v>15003503</v>
       </c>
       <c r="U8">
-        <v>15003603</v>
+        <v>15003601</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:21">
@@ -1935,7 +1935,7 @@
         <v>15003503</v>
       </c>
       <c r="U9">
-        <v>15003603</v>
+        <v>15003602</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="15" customHeight="1" spans="1:21">
@@ -2171,7 +2171,7 @@
         <v>15003503</v>
       </c>
       <c r="U13">
-        <v>15003603</v>
+        <v>15003604</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="15" customHeight="1" spans="1:21">

--- a/Config/data_config/EntityInfo.xlsx
+++ b/Config/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24660" windowHeight="11700"/>
+    <workbookView windowWidth="28440" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1514,11 +1514,11 @@
   <dimension ref="A1:U64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4460" ySplit="2880" topLeftCell="K1" activePane="bottomRight"/>
+      <pane xSplit="4460" ySplit="2880" topLeftCell="B1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1846,7 +1846,7 @@
         <v>10002</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1905,7 +1905,7 @@
         <v>10003</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1964,7 +1964,7 @@
         <v>10004</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2023,7 +2023,7 @@
         <v>10005</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2082,7 +2082,7 @@
         <v>10006</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -2141,7 +2141,7 @@
         <v>10007</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -2200,7 +2200,7 @@
         <v>10006</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -2292,7 +2292,7 @@
         <v>79</v>
       </c>
       <c r="I20" s="1">
-        <v>10001</v>
+        <v>101</v>
       </c>
       <c r="J20">
         <v>1001</v>
@@ -2343,7 +2343,7 @@
         <v>83</v>
       </c>
       <c r="I21" s="1">
-        <v>10001</v>
+        <v>101</v>
       </c>
       <c r="J21">
         <v>1002</v>
@@ -2393,7 +2393,7 @@
         <v>86</v>
       </c>
       <c r="I22" s="1">
-        <v>10001</v>
+        <v>101</v>
       </c>
       <c r="J22">
         <v>10001</v>
@@ -2451,7 +2451,7 @@
         <v>20501</v>
       </c>
       <c r="I24" s="1">
-        <v>10001</v>
+        <v>101</v>
       </c>
       <c r="J24">
         <v>10001</v>
@@ -2502,7 +2502,7 @@
         <v>20502</v>
       </c>
       <c r="I25" s="1">
-        <v>10001</v>
+        <v>101</v>
       </c>
       <c r="J25">
         <v>10001</v>
@@ -2561,7 +2561,7 @@
         <v>20801</v>
       </c>
       <c r="I27" s="1">
-        <v>10001</v>
+        <v>101</v>
       </c>
       <c r="J27">
         <v>10001</v>
@@ -2625,7 +2625,7 @@
         <v>28011</v>
       </c>
       <c r="I29" s="1">
-        <v>10001</v>
+        <v>101</v>
       </c>
       <c r="J29">
         <v>10001</v>
@@ -2680,7 +2680,7 @@
         <v>28012</v>
       </c>
       <c r="I30" s="1">
-        <v>10001</v>
+        <v>101</v>
       </c>
       <c r="J30">
         <v>10001</v>
@@ -2735,7 +2735,7 @@
         <v>28013</v>
       </c>
       <c r="I31" s="1">
-        <v>10001</v>
+        <v>101</v>
       </c>
       <c r="J31">
         <v>10001</v>
@@ -2790,7 +2790,7 @@
         <v>28014</v>
       </c>
       <c r="I32" s="1">
-        <v>10001</v>
+        <v>101</v>
       </c>
       <c r="J32">
         <v>10001</v>
@@ -2845,7 +2845,7 @@
         <v>28015</v>
       </c>
       <c r="I33" s="1">
-        <v>10001</v>
+        <v>101</v>
       </c>
       <c r="J33">
         <v>10001</v>
